--- a/OPSCO_Web/obj/Release/Package/PackageTmp/Templates/Template.xlsx
+++ b/OPSCO_Web/obj/Release/Package/PackageTmp/Templates/Template.xlsx
@@ -2144,7 +2144,7 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr lang="en-US" sz="1200" b="1"/>
+            <a:rPr lang="en-US" sz="1200" b="0"/>
             <a:t>@TeamName Monthly Scorecard</a:t>
           </a:r>
         </a:p>
@@ -2202,7 +2202,7 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr lang="en-US" sz="1200" b="1"/>
+            <a:rPr lang="en-US" sz="1200" b="0"/>
             <a:t>@RepName</a:t>
           </a:r>
         </a:p>
@@ -2260,7 +2260,7 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr lang="en-US" sz="1200" b="1"/>
+            <a:rPr lang="en-US" sz="1200" b="0"/>
             <a:t>@MonthYear</a:t>
           </a:r>
         </a:p>
@@ -2644,8 +2644,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:W57"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R50" sqref="R50"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P7" activeCellId="1" sqref="R50 P7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
